--- a/plot/attp_exp.xlsx
+++ b/plot/attp_exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f16b5e22896f263/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzy78\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\zyzhao\ATTPCode\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2314" documentId="11_F25DC773A252ABDACC1048C81919441A5BDE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C5E88F3-34CE-48BC-A912-C330FEEF3DFE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9426C4D-8B57-4861-8ADF-5909E4919DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HH-client-id-all-attp" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="244">
   <si>
     <t>CMG</t>
   </si>
@@ -308,12 +308,6 @@
     <t>/uusoc/scratch/raven1/zyzhao/ATTPCode/output/test-client-id-all-stats-11.txt</t>
   </si>
   <si>
-    <t>don't use</t>
-  </si>
-  <si>
-    <t>don’t use; no periodic stats report</t>
-  </si>
-  <si>
     <t>/uusoc/scratch/raven5/zyzhao/ATTPCode/output/object-id-attp-new-stats-04.txt</t>
   </si>
   <si>
@@ -350,9 +344,6 @@
     <t>CMG-e0.000010</t>
   </si>
   <si>
-    <t>don’t use (U23)</t>
-  </si>
-  <si>
     <t>don't use (U23)</t>
   </si>
   <si>
@@ -731,9 +722,6 @@
     <t>PCM_HH-logU22-e0.005-d0.001-D2000</t>
   </si>
   <si>
-    <t>rerun for max mem</t>
-  </si>
-  <si>
     <t>/uusoc/scratch/raven1/zyzhao/ATTPCode/output/object-id-bitp-new-stats-11.txt</t>
   </si>
   <si>
@@ -762,6 +750,30 @@
   </si>
   <si>
     <t>/uusoc/scratch/raven10/zyzhao/ATTPCode/output/client-id-bitp-new-stats-10.txt</t>
+  </si>
+  <si>
+    <t>don't use: different \Delta value</t>
+  </si>
+  <si>
+    <t>don't use: different \delta value</t>
+  </si>
+  <si>
+    <t>don't use: larger than necessary universe size</t>
+  </si>
+  <si>
+    <t>don’t use: larger than necessary universe size (U23)</t>
+  </si>
+  <si>
+    <t>don't use: epsilon too large</t>
+  </si>
+  <si>
+    <t>don’t use: no periodic stats report &amp; smaller than necessary \delta value</t>
+  </si>
+  <si>
+    <t>U22; don't use: smaller than necessary \delta value</t>
+  </si>
+  <si>
+    <t>Didn't use. Heavy hitter threshold was set too low (too many items)</t>
   </si>
 </sst>
 </file>
@@ -789,12 +801,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -809,10 +827,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3608,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,10 +3681,10 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3696,7 +3717,7 @@
         <v>raven1</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3729,7 +3750,7 @@
         <v>ravenserv1</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3762,10 +3783,10 @@
         <v>raven6</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L4" t="str">
         <f>_xlfn.CONCAT("CMG-e", TEXT(B4, "0.000000"))</f>
@@ -3802,7 +3823,7 @@
         <v>raven5</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3835,11 +3856,11 @@
         <v>raven2</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B7">
@@ -3868,7 +3889,7 @@
         <v>raven4</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3901,806 +3922,806 @@
         <v>raven3</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>252.82400000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>6400</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>6.3410000000000002</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.90500000000000003</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven7</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" ref="L9:L16" si="1">_xlfn.CONCAT("PCM_HH-logU22-e", B9, "-d0.01-D2000")</f>
         <v>PCM_HH-logU22-e0.1-d0.01-D2000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.08</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>285.69200000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>6534</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>5.4050000000000002</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven8</v>
       </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="J10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.08-d0.01-D2000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.06</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>318.11700000000002</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>6698</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>5.6609999999999996</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>0.80800000000000005</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven9</v>
       </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.06-d0.01-D2000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.04</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>336.71699999999998</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>6907</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>5.867</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven10</v>
       </c>
-      <c r="J12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="J12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.04-d0.01-D2000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0.02</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>408.755</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>7120</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>5.7359999999999998</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.81899999999999995</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven10</v>
       </c>
-      <c r="J13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="J13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.02-d0.01-D2000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.01</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>500.4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>7338</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>6.2560000000000002</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.89300000000000002</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven9</v>
       </c>
-      <c r="J14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="J14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.01-d0.01-D2000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>504.93</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>7221</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>6.423</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>0.91700000000000004</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven8</v>
       </c>
-      <c r="J15" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" t="str">
+      <c r="J15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.008-d0.01-D2000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>566.18299999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>7365</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>7.0620000000000003</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>1.008</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven7</v>
       </c>
-      <c r="J16" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" t="str">
+      <c r="J16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.005-d0.01-D2000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>24.309000000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>566</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="K17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" t="str">
+      <c r="K17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="2" t="str">
         <f t="shared" ref="L17:L23" si="2">_xlfn.CONCAT("CMG-e", TEXT(B17, "0.000000"))</f>
         <v>CMG-e0.000200</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1E-4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>42.404000000000003</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>597</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>0.08</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="K18" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" t="str">
+      <c r="K18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CMG-e0.000100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>50.875</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>602</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>11</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K19" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" t="str">
+      <c r="K19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CMG-e0.000080</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>65.903999999999996</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>620</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>11</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K20" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" t="str">
+      <c r="K20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CMG-e0.000060</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>99.808999999999997</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>635</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>13</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" t="str">
+      <c r="K21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CMG-e0.000040</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>200.416</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>673</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>18</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K22" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" t="str">
+      <c r="K22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CMG-e0.000020</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>416.70800000000003</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>674</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>1.0089999999999999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>144</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="K23" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" t="str">
+      <c r="K23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CMG-e0.000010</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>10000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>2.7839999999999998</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>113</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>0.152</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>21</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" t="str">
+      <c r="K24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="2" t="str">
         <f t="shared" ref="L24:L29" si="3">_xlfn.CONCAT("SAMPLING-ss",B24)</f>
         <v>SAMPLING-ss10000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>50000</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>12.923</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>95</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>0.14599999999999999</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>20.994</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" t="str">
+      <c r="K25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss50000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>100000</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>25.233000000000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>123</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>0.33</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K26" t="s">
-        <v>113</v>
-      </c>
-      <c r="L26" t="str">
+      <c r="K26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss100000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>200000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>49.732999999999997</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>114</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>0.59199999999999997</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>84</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K27" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" t="str">
+      <c r="K27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss200000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>500000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>122.938</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>118</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>272</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K28" t="s">
-        <v>117</v>
-      </c>
-      <c r="L28" t="str">
+      <c r="K28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss500000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>1000000</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>244.922</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>117</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>1.661</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>237</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven5</v>
       </c>
-      <c r="K29" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" t="str">
+      <c r="K29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss1000000</v>
       </c>
@@ -4713,16 +4734,16 @@
         <v>0.1</v>
       </c>
       <c r="H30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J30" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L30" t="str">
         <f>_xlfn.CONCAT("PCM_HH-logU22-e", B30, "-d0.001-D2000")</f>
@@ -4737,16 +4758,16 @@
         <v>0.08</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" ref="L31:L37" si="4">_xlfn.CONCAT("PCM_HH-logU22-e", B31, "-d0.001-D2000")</f>
@@ -4761,16 +4782,16 @@
         <v>0.06</v>
       </c>
       <c r="H32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J32" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="4"/>
@@ -4785,16 +4806,16 @@
         <v>0.04</v>
       </c>
       <c r="H33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="4"/>
@@ -4809,16 +4830,16 @@
         <v>0.02</v>
       </c>
       <c r="H34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="K34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="4"/>
@@ -4833,16 +4854,16 @@
         <v>0.01</v>
       </c>
       <c r="H35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="K35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="4"/>
@@ -4857,16 +4878,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J36" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="K36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="4"/>
@@ -4881,16 +4902,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H37" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J37" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="K37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="4"/>
@@ -4912,7 +4933,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4969,448 +4990,430 @@
         <v>40</v>
       </c>
       <c r="M1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" t="str">
+      <c r="H2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I19" si="0">MID(H2,FIND("raven",H2),FIND("/",H2,FIND("raven",H2))-FIND("raven",H2))</f>
         <v>raven1</v>
       </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="M2" t="s">
-        <v>193</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="J2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="M2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="2" t="str">
         <f t="shared" ref="N2:N7" si="1">_xlfn.CONCAT("PCM_HH-logU22-e", B2, "-d0.01-D2000")</f>
         <v>PCM_HH-logU22-e0.0003-d0.01-D2000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="H3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="M3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N3" t="str">
+      <c r="J3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="M3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.0006-d0.01-D2000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1E-3</v>
       </c>
-      <c r="H4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" t="str">
+      <c r="H4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven7</v>
       </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="M4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" t="str">
+      <c r="J4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="M4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.001-d0.01-D2000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2E-3</v>
       </c>
-      <c r="H5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" t="str">
+      <c r="H5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven8</v>
       </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="M5" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" t="str">
+      <c r="J5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="M5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.002-d0.01-D2000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="H6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="M6" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" t="str">
+      <c r="J6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="M6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.005-d0.01-D2000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.01</v>
       </c>
-      <c r="H7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" t="str">
+      <c r="H7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="M7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" t="str">
+      <c r="J7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="M7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU22-e0.01-d0.01-D2000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>10000</v>
       </c>
-      <c r="H8" t="s">
-        <v>199</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="H8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="M8" t="s">
-        <v>148</v>
-      </c>
-      <c r="N8" t="str">
+      <c r="M8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="2" t="str">
         <f t="shared" ref="N8:N13" si="2">_xlfn.CONCAT("SAMPLING_BITP-ss", B8, "-use_new_impl-2")</f>
         <v>SAMPLING_BITP-ss10000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>25000</v>
       </c>
-      <c r="H9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" t="str">
+      <c r="H9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="M9" t="s">
-        <v>149</v>
-      </c>
-      <c r="N9" t="str">
+      <c r="M9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss25000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>50000</v>
       </c>
-      <c r="H10" t="s">
-        <v>201</v>
-      </c>
-      <c r="I10" t="str">
+      <c r="H10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="M10" t="s">
-        <v>150</v>
-      </c>
-      <c r="N10" t="str">
+      <c r="M10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss50000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>100000</v>
       </c>
-      <c r="H11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I11" t="str">
+      <c r="H11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="M11" t="s">
-        <v>152</v>
-      </c>
-      <c r="N11" t="str">
+      <c r="K11" s="3"/>
+      <c r="M11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss100000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>500000</v>
       </c>
-      <c r="H12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I12" t="str">
+      <c r="H12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven7</v>
       </c>
-      <c r="M12" t="s">
-        <v>154</v>
-      </c>
-      <c r="N12" t="str">
+      <c r="M12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss500000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>1000000</v>
       </c>
-      <c r="H13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I13" t="str">
+      <c r="H13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven8</v>
       </c>
-      <c r="M13" t="s">
-        <v>156</v>
-      </c>
-      <c r="N13" t="str">
+      <c r="M13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss1000000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H14" t="s">
-        <v>235</v>
-      </c>
-      <c r="I14" t="str">
+      <c r="H14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="J14" t="s">
-        <v>229</v>
-      </c>
-      <c r="M14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" t="str">
+      <c r="M14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N14" s="2" t="str">
         <f t="shared" ref="N14:N19" si="3">_xlfn.CONCAT("TMG_BITP-e", TEXT(B14,"0.000000"))</f>
         <v>TMG_BITP-e0.000010</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="H15" t="s">
-        <v>236</v>
-      </c>
-      <c r="I15" t="str">
+      <c r="H15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven7</v>
       </c>
-      <c r="J15" t="s">
-        <v>229</v>
-      </c>
-      <c r="M15" t="s">
-        <v>197</v>
-      </c>
-      <c r="N15" t="str">
+      <c r="M15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.000030</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="H16" t="s">
-        <v>237</v>
-      </c>
-      <c r="I16" t="str">
+      <c r="H16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven8</v>
       </c>
-      <c r="J16" t="s">
-        <v>229</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="M16" t="s">
-        <v>196</v>
-      </c>
-      <c r="N16" t="str">
+      <c r="K16" s="3"/>
+      <c r="M16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.000050</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="H17" t="s">
-        <v>238</v>
-      </c>
-      <c r="I17" t="str">
+      <c r="H17" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven9</v>
       </c>
-      <c r="J17" t="s">
-        <v>229</v>
-      </c>
-      <c r="M17" t="s">
-        <v>195</v>
-      </c>
-      <c r="N17" t="str">
+      <c r="M17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N17" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.000070</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1E-4</v>
       </c>
-      <c r="H18" t="s">
-        <v>239</v>
-      </c>
-      <c r="I18" t="str">
+      <c r="H18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven10</v>
       </c>
-      <c r="J18" t="s">
-        <v>229</v>
-      </c>
-      <c r="M18" t="s">
-        <v>194</v>
-      </c>
-      <c r="N18" t="str">
+      <c r="M18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N18" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.000100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H19" t="s">
-        <v>235</v>
-      </c>
-      <c r="I19" t="str">
+      <c r="H19" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="J19" t="s">
-        <v>229</v>
-      </c>
-      <c r="M19" t="s">
-        <v>165</v>
-      </c>
-      <c r="N19" t="str">
+      <c r="M19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.000200</v>
       </c>
@@ -5430,7 +5433,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5488,800 +5491,800 @@
         <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.01</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>455</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <f>0.000066*7</f>
         <v>4.6200000000000006E-4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I19" si="0">MID(H2,FIND("raven",H2),FIND("/",H2,FIND("raven",H2))-FIND("raven",H2))</f>
         <v>raven1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="M2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="2" t="str">
         <f t="shared" ref="N2:N7" si="1">_xlfn.CONCAT("CMG-e", TEXT(B2, "0.000000"))</f>
         <v>CMG-e0.010000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>415</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>2E-3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.28799999999999998</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>0.75</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" t="str">
+      <c r="M3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>CMG-e0.008000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.81499999999999995</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>401</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N4" t="str">
+      <c r="M4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>CMG-e0.006000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1.155</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>384</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>0.83099999999999996</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>134</v>
-      </c>
-      <c r="N5" t="str">
+      <c r="M5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>CMG-e0.004000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2.117</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>393</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="H6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>135</v>
-      </c>
-      <c r="N6" t="str">
+      <c r="M6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>CMG-e0.002000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>4.0110000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>423</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1.335</v>
       </c>
-      <c r="H7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" t="str">
+      <c r="H7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" t="str">
+      <c r="M7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>CMG-e0.001000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.04</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>119.559</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>4335</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f>0.000805*7</f>
         <v>5.6350000000000003E-3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.80500000000000005</v>
       </c>
-      <c r="H8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="H8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>5.9880200000000001E-3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>0.33333299999999999</v>
       </c>
-      <c r="M8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N8" t="str">
+      <c r="M8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="2" t="str">
         <f t="shared" ref="N8:N13" si="2">_xlfn.CONCAT("PCM_HH-logU17-e", B8, "-d0.01-D2000")</f>
         <v>PCM_HH-logU17-e0.04-d0.01-D2000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.02</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>131.57900000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>4460</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.44600000000000001</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" t="str">
+      <c r="M9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>PCM_HH-logU17-e0.02-d0.01-D2000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.01</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>142.85</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>4588</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>2E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>0.379</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>140</v>
-      </c>
-      <c r="N10" t="str">
+      <c r="M10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>PCM_HH-logU17-e0.01-d0.01-D2000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>155.09700000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>4592</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>2E-3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>141</v>
-      </c>
-      <c r="N11" t="str">
+      <c r="M11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>PCM_HH-logU17-e0.007-d0.01-D2000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>166.25700000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>4743</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>2E-3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>0.29299999999999998</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>142</v>
-      </c>
-      <c r="N12" t="str">
+      <c r="M12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>PCM_HH-logU17-e0.003-d0.01-D2000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>192.297</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>5045</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>2E-3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" t="str">
+      <c r="H13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven5</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>143</v>
-      </c>
-      <c r="N13" t="str">
+      <c r="M13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>PCM_HH-logU17-e0.001-d0.01-D2000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>10000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>2.7839999999999998</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>109</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f>0.000856*7</f>
         <v>5.9919999999999999E-3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.85599999999999998</v>
       </c>
-      <c r="H14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" t="str">
+      <c r="H14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>0.66666700000000001</v>
       </c>
-      <c r="M14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" t="str">
+      <c r="M14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="2" t="str">
         <f t="shared" ref="N14:N19" si="3">_xlfn.CONCAT("SAMPLING-ss",B14)</f>
         <v>SAMPLING-ss10000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>25000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>6.6360000000000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>112</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>1.6739999999999999</v>
       </c>
-      <c r="H15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" t="str">
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven5</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N15" t="str">
+      <c r="M15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss25000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>50000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>12.923</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>114</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>3.2160000000000002</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>1</v>
       </c>
-      <c r="M16" t="s">
-        <v>114</v>
-      </c>
-      <c r="N16" t="str">
+      <c r="M16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss50000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>100000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>25.233000000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>115</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.04</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>5.8140000000000001</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
-        <v>113</v>
-      </c>
-      <c r="N17" t="str">
+      <c r="M17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss100000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>250000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>61.694000000000003</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>112</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>13.917</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" t="str">
+      <c r="M18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss250000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>500000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>122.938</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>112</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.189</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>27.068000000000001</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>1</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" t="str">
+      <c r="M19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss500000</v>
       </c>
@@ -6299,8 +6302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F43EC05-FD57-427D-8166-608406CA469D}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" activeCellId="1" sqref="H5:H28 M5:M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6312,7 +6315,7 @@
     <col min="6" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="76.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" customWidth="1"/>
     <col min="13" max="13" width="23.5703125" customWidth="1"/>
@@ -6357,10 +6360,10 @@
         <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -6370,7 +6373,7 @@
       <c r="B2">
         <v>0.01</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>197.114</v>
       </c>
       <c r="D2">
@@ -6393,7 +6396,7 @@
         <v>raven2</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="K2">
         <v>0.105263</v>
@@ -6432,7 +6435,7 @@
         <v>raven1</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="K3">
         <v>0.235294</v>
@@ -6448,7 +6451,7 @@
       <c r="B4">
         <v>0.01</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>183.387</v>
       </c>
       <c r="D4">
@@ -6471,7 +6474,7 @@
         <v>raven9</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="K4">
         <v>0.130435</v>
@@ -6480,953 +6483,926 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>98.171000000000006</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4147</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>18.890999999999998</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>5.03018E-5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>144</v>
-      </c>
-      <c r="N5" t="str">
+      <c r="M5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="2" t="str">
         <f>_xlfn.CONCAT("PCM_HH-logU17-e", B5, "-d0.01-D2000")</f>
         <v>PCM_HH-logU17-e0.1-d0.01-D2000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>117.711</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>4235</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>3.585</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven8</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>4.3541400000000003E-3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N6" t="str">
+      <c r="M6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="2" t="str">
         <f t="shared" ref="N6:N10" si="1">_xlfn.CONCAT("PCM_HH-logU17-e", B6, "-d0.01-D2000")</f>
         <v>PCM_HH-logU17-e0.07-d0.01-D2000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.03</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>133.41499999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4448</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1.337</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven7</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>4.05405E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>146</v>
-      </c>
-      <c r="N7" t="str">
+      <c r="M7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU17-e0.03-d0.01-D2000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.01</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>142.85</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>4648</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>1.0229999999999999</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0.130435</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
-        <v>140</v>
-      </c>
-      <c r="N8" t="str">
+      <c r="M8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU17-e0.01-d0.01-D2000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>192.297</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>4983</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.78600000000000003</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven5</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0.6</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" t="str">
+      <c r="M9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU17-e0.001-d0.01-D2000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>225.453</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>2138</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>0.83699999999999997</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.66666700000000001</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
-        <v>147</v>
-      </c>
-      <c r="N10" t="str">
+      <c r="M10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>PCM_HH-logU17-e0.0005-d0.01-D2000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>10000</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>13.432</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>798</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.28599999999999998</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>40.991</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.66666700000000001</v>
       </c>
-      <c r="M11" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" t="str">
+      <c r="M11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="2" t="str">
         <f>_xlfn.CONCAT("SAMPLING_BITP-ss", B11, "-use_new_impl-2")</f>
         <v>SAMPLING_BITP-ss10000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>25000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>33.573999999999998</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>889</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.91300000000000003</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>130.52799999999999</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N12" t="str">
+      <c r="M12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N12" s="2" t="str">
         <f t="shared" ref="N12:N19" si="2">_xlfn.CONCAT("SAMPLING_BITP-ss", B12, "-use_new_impl-2")</f>
         <v>SAMPLING_BITP-ss25000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>50000</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>67.143000000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>783</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>1.8380000000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>262.68299999999999</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>0.66666700000000001</v>
       </c>
-      <c r="M13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N13" t="str">
+      <c r="M13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss50000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>75000</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>100.712</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>565</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>2.3180000000000001</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>331.22899999999998</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven8</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>0.66666700000000001</v>
       </c>
-      <c r="M14" t="s">
-        <v>151</v>
-      </c>
-      <c r="N14" t="str">
+      <c r="M14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss75000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>100000</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>134.28200000000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>763</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>4.1070000000000002</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>586.76599999999996</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>0.66666700000000001</v>
       </c>
-      <c r="M15" t="s">
-        <v>152</v>
-      </c>
-      <c r="N15" t="str">
+      <c r="M15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss100000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>250000</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>335.69799999999998</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>630</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>10.878</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>1554.14</v>
       </c>
-      <c r="H16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" t="str">
+      <c r="H16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven5</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>1</v>
       </c>
-      <c r="M16" t="s">
-        <v>153</v>
-      </c>
-      <c r="N16" t="str">
+      <c r="M16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss250000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>500000</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>671.39099999999996</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>581</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>19.376999999999999</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>2768.2820000000002</v>
       </c>
-      <c r="H17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" t="str">
+      <c r="H17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven6</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
-        <v>154</v>
-      </c>
-      <c r="N17" t="str">
+      <c r="M17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss500000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>750000</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>1007.0839999999999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>631</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>31.439</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>4491.3770000000004</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven9</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N18" t="str">
+      <c r="M18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss750000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1000000</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>1281.7429999999999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>636</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>46.234999999999999</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>6605.0429999999997</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven7</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>1</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
-        <v>156</v>
-      </c>
-      <c r="N19" t="str">
+      <c r="M19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SAMPLING_BITP-ss1000000-use_new_impl-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.01</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>31.443999999999999</v>
       </c>
-      <c r="H20" t="s">
-        <v>230</v>
-      </c>
-      <c r="I20" t="str">
+      <c r="H20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="J20" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>7.0588200000000004E-2</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>1</v>
       </c>
-      <c r="M20" t="s">
-        <v>157</v>
-      </c>
-      <c r="N20" t="str">
+      <c r="M20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N20" s="2" t="str">
         <f>_xlfn.CONCAT("TMG_BITP-e", TEXT(B20,"0.000000"))</f>
         <v>TMG_BITP-e0.010000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>43.792000000000002</v>
       </c>
-      <c r="H21" t="s">
-        <v>231</v>
-      </c>
-      <c r="I21" t="str">
+      <c r="H21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="J21" t="s">
-        <v>229</v>
-      </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>7.59494E-2</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
-        <v>158</v>
-      </c>
-      <c r="N21" t="str">
+      <c r="M21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" s="2" t="str">
         <f t="shared" ref="N21:N28" si="3">_xlfn.CONCAT("TMG_BITP-e", TEXT(B21,"0.000000"))</f>
         <v>TMG_BITP-e0.008000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>66.13</v>
       </c>
-      <c r="H22" t="s">
-        <v>232</v>
-      </c>
-      <c r="I22" t="str">
+      <c r="H22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="J22" t="s">
-        <v>229</v>
-      </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>0.125</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
-        <v>159</v>
-      </c>
-      <c r="N22" t="str">
+      <c r="M22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.006000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>140.29599999999999</v>
       </c>
-      <c r="H23" t="s">
-        <v>233</v>
-      </c>
-      <c r="I23" t="str">
+      <c r="H23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="J23" t="s">
-        <v>229</v>
-      </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>0.42857099999999998</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>1</v>
       </c>
-      <c r="M23" t="s">
-        <v>160</v>
-      </c>
-      <c r="N23" t="str">
+      <c r="M23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.004000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>2E-3</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>427.5</v>
       </c>
-      <c r="H24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I24" t="str">
+      <c r="H24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven5</v>
       </c>
-      <c r="J24" t="s">
-        <v>229</v>
-      </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>0.75</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>161</v>
-      </c>
-      <c r="N24" t="str">
+      <c r="M24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.002000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>1108.1969999999999</v>
       </c>
-      <c r="H25" t="s">
-        <v>233</v>
-      </c>
-      <c r="I25" t="str">
+      <c r="H25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven4</v>
       </c>
-      <c r="J25" t="s">
-        <v>229</v>
-      </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>1</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>1</v>
       </c>
-      <c r="M25" t="s">
-        <v>162</v>
-      </c>
-      <c r="N25" t="str">
+      <c r="M25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.001000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>1453.3240000000001</v>
       </c>
-      <c r="H26" t="s">
-        <v>232</v>
-      </c>
-      <c r="I26" t="str">
+      <c r="H26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="J26" t="s">
-        <v>229</v>
-      </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>1</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <v>1</v>
       </c>
-      <c r="M26" t="s">
-        <v>163</v>
-      </c>
-      <c r="N26" t="str">
+      <c r="M26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.000800</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>2801.5720000000001</v>
       </c>
-      <c r="H27" t="s">
-        <v>231</v>
-      </c>
-      <c r="I27" t="str">
+      <c r="H27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="J27" t="s">
-        <v>229</v>
-      </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>1</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>1</v>
       </c>
-      <c r="M27" t="s">
-        <v>164</v>
-      </c>
-      <c r="N27" t="str">
+      <c r="M27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N27" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.000400</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>4339.7460000000001</v>
       </c>
-      <c r="H28" t="s">
-        <v>230</v>
-      </c>
-      <c r="I28" t="str">
+      <c r="H28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="J28" t="s">
-        <v>229</v>
-      </c>
-      <c r="K28">
+      <c r="K28" s="2">
         <v>1</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <v>1</v>
       </c>
-      <c r="M28" t="s">
-        <v>165</v>
-      </c>
-      <c r="N28" t="str">
+      <c r="M28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" s="2" t="str">
         <f t="shared" si="3"/>
         <v>TMG_BITP-e0.000200</v>
       </c>
@@ -7446,7 +7422,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="A2" sqref="A2:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7506,1068 +7482,1068 @@
         <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.08</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <f>0.000048*15</f>
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I33" si="0">MID(H2,FIND("raven",H2),FIND("/",H2,FIND("raven",H2))-FIND("raven",H2))</f>
         <v>raven1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>9.1428300000000004E-2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>0.28628900000000002</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>0.17561199999999999</v>
       </c>
-      <c r="N2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O2" t="str">
+      <c r="N2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" s="2" t="str">
         <f>_xlfn.CONCAT("NORM_SAMPLING-ss",B2)</f>
         <v>NORM_SAMPLING-ss10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.184</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1E-3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>106</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>6.8981500000000001E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.113534</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>9.1051599999999996E-2</v>
       </c>
-      <c r="N3" t="s">
-        <v>167</v>
-      </c>
-      <c r="O3" t="str">
+      <c r="N3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="2" t="str">
         <f t="shared" ref="O3:O9" si="1">_xlfn.CONCAT("NORM_SAMPLING-ss",B3)</f>
         <v>NORM_SAMPLING-ss25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.33200000000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>203</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>4.2006399999999999E-2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>8.6037799999999998E-2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>6.2219999999999998E-2</v>
       </c>
-      <c r="N4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O4" t="str">
+      <c r="N4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.61099999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>395</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>6.2974199999999994E-2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>3.9566400000000002E-2</v>
       </c>
-      <c r="N5" t="s">
-        <v>169</v>
-      </c>
-      <c r="O5" t="str">
+      <c r="N5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.85499999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>587</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>1.6045199999999999E-2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>6.5186999999999995E-2</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>3.38894E-2</v>
       </c>
-      <c r="N6" t="s">
-        <v>170</v>
-      </c>
-      <c r="O6" t="str">
+      <c r="N6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss150</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>200</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1.119</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>779</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>1.1123600000000001E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>6.7944400000000002E-2</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>3.3723700000000002E-2</v>
       </c>
-      <c r="N7" t="s">
-        <v>171</v>
-      </c>
-      <c r="O7" t="str">
+      <c r="N7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss200</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>400</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>2.0289999999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>1543</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>4.7926400000000001E-2</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>2.9125499999999999E-2</v>
       </c>
-      <c r="N8" t="s">
-        <v>172</v>
-      </c>
-      <c r="O8" t="str">
+      <c r="N8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>600</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>2.8029999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>2230</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>3.6399899999999999E-2</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>2.2196E-2</v>
       </c>
-      <c r="N9" t="s">
-        <v>173</v>
-      </c>
-      <c r="O9" t="str">
+      <c r="N9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f>0.000045*15</f>
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.155804</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>0.228741</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>0.18860399999999999</v>
       </c>
-      <c r="N10" t="s">
-        <v>174</v>
-      </c>
-      <c r="O10" t="str">
+      <c r="N10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="2" t="str">
         <f>_xlfn.CONCAT("NORM_SAMPLING_WR-ss", B10)</f>
         <v>NORM_SAMPLING_WR-ss10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.315</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>1E-3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>103</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>8.5435300000000006E-2</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.30598399999999998</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>0.16497000000000001</v>
       </c>
-      <c r="N11" t="s">
-        <v>175</v>
-      </c>
-      <c r="O11" t="str">
+      <c r="N11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O11" s="2" t="str">
         <f t="shared" ref="O11:O18" si="2">_xlfn.CONCAT("NORM_SAMPLING_WR-ss", B11)</f>
         <v>NORM_SAMPLING_WR-ss25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>50</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.55400000000000005</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>201</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>5.3147199999999999E-2</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>0.26464700000000002</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>0.15309</v>
       </c>
-      <c r="N12" t="s">
-        <v>176</v>
-      </c>
-      <c r="O12" t="str">
+      <c r="N12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>397</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>3.2494099999999998E-2</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>0.111358</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>7.6490199999999994E-2</v>
       </c>
-      <c r="N13" t="s">
-        <v>177</v>
-      </c>
-      <c r="O13" t="str">
+      <c r="N13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>150</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.98</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>588</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>2.4131699999999999E-2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>0.10428900000000001</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>7.1257799999999996E-2</v>
       </c>
-      <c r="N14" t="s">
-        <v>178</v>
-      </c>
-      <c r="O14" t="str">
+      <c r="N14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss150</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>200</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>1.784</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.19</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>777</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>2.48162E-2</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>0.118632</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>7.5527899999999995E-2</v>
       </c>
-      <c r="N15" t="s">
-        <v>179</v>
-      </c>
-      <c r="O15" t="str">
+      <c r="N15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss200</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>400</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1.784</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.373</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>1543</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>1.6735E-2</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>0.14580000000000001</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>8.7865600000000002E-2</v>
       </c>
-      <c r="N16" t="s">
-        <v>180</v>
-      </c>
-      <c r="O16" t="str">
+      <c r="N16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss400</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>600</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>2.4670000000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.55600000000000005</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>2292</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>1.4228299999999999E-2</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>0.132995</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>8.6393499999999998E-2</v>
       </c>
-      <c r="N17" t="s">
-        <v>181</v>
-      </c>
-      <c r="O17" t="str">
+      <c r="N17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss600</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>700</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>2.81</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0.622</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>12</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>2523</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>1.35367E-2</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>0.113631</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>0.727271</v>
       </c>
-      <c r="N18" t="s">
-        <v>182</v>
-      </c>
-      <c r="O18" t="str">
+      <c r="N18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss700</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>1.6459999999999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>32</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>1E-3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>67</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>5.3936900000000003E-2</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>0.10990900000000001</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>8.4097500000000006E-2</v>
       </c>
-      <c r="N19" t="s">
-        <v>183</v>
-      </c>
-      <c r="O19" t="str">
+      <c r="N19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" s="2" t="str">
         <f>_xlfn.CONCAT("PFD-l", B19)</f>
         <v>PFD-l10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>2.3580000000000001</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>47</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.01</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>669</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>4.38044E-2</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>5.9320999999999999E-2</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>5.1265400000000003E-2</v>
       </c>
-      <c r="N20" t="s">
-        <v>184</v>
-      </c>
-      <c r="O20" t="str">
+      <c r="N20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" s="2" t="str">
         <f t="shared" ref="O20:O24" si="3">_xlfn.CONCAT("PFD-l", B20)</f>
         <v>PFD-l20</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>40</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>4.5720000000000001</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>91</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>2807</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>2.2012899999999998E-2</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>3.52996E-2</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>2.7032299999999999E-2</v>
       </c>
-      <c r="N21" t="s">
-        <v>185</v>
-      </c>
-      <c r="O21" t="str">
+      <c r="N21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l40</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>60</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1.091</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>10.388999999999999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>207</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>4849</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>1.51299E-2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>2.3862299999999999E-2</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>1.8798599999999999E-2</v>
       </c>
-      <c r="N22" t="s">
-        <v>186</v>
-      </c>
-      <c r="O22" t="str">
+      <c r="N22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l60</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>80</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>1.962</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>16.849</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>336</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>4204</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>1.20973E-2</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>1.5155099999999999E-2</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>1.34027E-2</v>
       </c>
-      <c r="N23" t="s">
-        <v>187</v>
-      </c>
-      <c r="O23" t="str">
+      <c r="N23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l80</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>100</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>2.968</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>27.44</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>548</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>0.11899999999999999</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>7974</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>7.5440400000000001E-3</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>1.0079400000000001E-2</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="2">
         <v>9.4294700000000006E-3</v>
       </c>
-      <c r="N24" t="s">
-        <v>188</v>
-      </c>
-      <c r="O24" t="str">
+      <c r="N24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l100</v>
       </c>
@@ -8640,8 +8616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E4A0B-B5E9-4D3C-B512-32701D450004}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8701,1158 +8677,1158 @@
         <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.73299999999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>3.73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I26" si="0">MID(H2,FIND("raven",H2),FIND("/",H2,FIND("raven",H2))-FIND("raven",H2))</f>
         <v>raven2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>9.1620499999999994E-2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>0.131577</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>0.103926</v>
       </c>
-      <c r="N2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O2" t="str">
+      <c r="N2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" s="2" t="str">
         <f>_xlfn.CONCAT("NORM_SAMPLING-ss",B2)</f>
         <v>NORM_SAMPLING-ss10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1.708</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.128</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>8.59</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>4.1373100000000003E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>6.5534300000000004E-2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>0.55948100000000001</v>
       </c>
-      <c r="N3" t="s">
-        <v>167</v>
-      </c>
-      <c r="O3" t="str">
+      <c r="N3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="2" t="str">
         <f t="shared" ref="O3:O9" si="1">_xlfn.CONCAT("NORM_SAMPLING-ss",B3)</f>
         <v>NORM_SAMPLING-ss25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3.0449999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.252</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>16.803999999999998</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>2.8021600000000001E-2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>4.1125700000000001E-2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>3.2909500000000001E-2</v>
       </c>
-      <c r="N4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O4" t="str">
+      <c r="N4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>5.476</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>33.395000000000003</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>1.10656E-2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>3.8490499999999997E-2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>2.4619800000000001E-2</v>
       </c>
-      <c r="N5" t="s">
-        <v>169</v>
-      </c>
-      <c r="O5" t="str">
+      <c r="N5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>7.77</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.74399999999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>49.655999999999999</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>7.8749900000000001E-3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>2.6163200000000001E-2</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>1.9025899999999998E-2</v>
       </c>
-      <c r="N6" t="s">
-        <v>170</v>
-      </c>
-      <c r="O6" t="str">
+      <c r="N6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss150</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>200</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>9.9789999999999992</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.99</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>66.022000000000006</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>6.2329000000000004E-3</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>1.8303799999999999E-2</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>1.45335E-2</v>
       </c>
-      <c r="N7" t="s">
-        <v>171</v>
-      </c>
-      <c r="O7" t="str">
+      <c r="N7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss200</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>400</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>18.077000000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>1.9430000000000001</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.129</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>1.7912299999999999E-2</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>1.01916E-2</v>
       </c>
-      <c r="N8" t="s">
-        <v>172</v>
-      </c>
-      <c r="O8" t="str">
+      <c r="N8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>600</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>24.878</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>2.9129999999999998</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>1.4334100000000001E-2</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>8.7334000000000005E-3</v>
       </c>
-      <c r="N9" t="s">
-        <v>173</v>
-      </c>
-      <c r="O9" t="str">
+      <c r="N9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.64</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>3.9820000000000002</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.11765</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>0.141703</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>0.13193199999999999</v>
       </c>
-      <c r="N10" t="s">
-        <v>174</v>
-      </c>
-      <c r="O10" t="str">
+      <c r="N10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="2" t="str">
         <f>_xlfn.CONCAT("NORM_SAMPLING_WR-ss", B10)</f>
         <v>NORM_SAMPLING_WR-ss10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1.468</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>8.9339999999999993</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>5.3918500000000001E-2</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>9.8493600000000001E-2</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>7.5633500000000006E-2</v>
       </c>
-      <c r="N11" t="s">
-        <v>175</v>
-      </c>
-      <c r="O11" t="str">
+      <c r="N11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O11" s="2" t="str">
         <f t="shared" ref="O11:O18" si="2">_xlfn.CONCAT("NORM_SAMPLING_WR-ss", B11)</f>
         <v>NORM_SAMPLING_WR-ss25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>50</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>2.7349999999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.25700000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>17.184000000000001</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>3.1867699999999999E-2</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>4.9747100000000002E-2</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>4.3068099999999998E-2</v>
       </c>
-      <c r="N12" t="s">
-        <v>176</v>
-      </c>
-      <c r="O12" t="str">
+      <c r="N12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>4.976</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.505</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>33.689</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>1.7943400000000002E-2</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>5.0378699999999998E-2</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>2.5911199999999999E-2</v>
       </c>
-      <c r="N13" t="s">
-        <v>177</v>
-      </c>
-      <c r="O13" t="str">
+      <c r="N13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>150</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>6.9820000000000002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.184</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.83</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>55.356999999999999</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>1.34615E-2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>2.69655E-2</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>2.0870199999999998E-2</v>
       </c>
-      <c r="N14" t="s">
-        <v>178</v>
-      </c>
-      <c r="O14" t="str">
+      <c r="N14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss150</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>200</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>8.8719999999999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.219</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>66.328000000000003</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>1.1487300000000001E-2</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>2.2642499999999999E-2</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>1.7801399999999998E-2</v>
       </c>
-      <c r="N15" t="s">
-        <v>179</v>
-      </c>
-      <c r="O15" t="str">
+      <c r="N15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss200</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>400</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>15.994</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.39400000000000002</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>1.97</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>131.35599999999999</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>7.1879300000000004E-3</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>1.5030999999999999E-2</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>1.15532E-2</v>
       </c>
-      <c r="N16" t="s">
-        <v>180</v>
-      </c>
-      <c r="O16" t="str">
+      <c r="N16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss400</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>600</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>22.085000000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.57899999999999996</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>3.0059999999999998</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>200.45400000000001</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>5.7510199999999999E-3</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>1.0418999999999999E-2</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>8.3294900000000002E-3</v>
       </c>
-      <c r="N17" t="s">
-        <v>181</v>
-      </c>
-      <c r="O17" t="str">
+      <c r="N17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss600</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>700</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>24.95</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>13</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>3.52</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>234.721</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>4.8075399999999999E-3</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>1.21225E-2</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>9.1534800000000003E-3</v>
       </c>
-      <c r="N18" t="s">
-        <v>182</v>
-      </c>
-      <c r="O18" t="str">
+      <c r="N18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss700</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.374</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>105</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>2118</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>5.149</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>5.9228199999999996E-3</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>3.9979800000000003E-2</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>2.4646499999999998E-2</v>
       </c>
-      <c r="N19" t="s">
-        <v>183</v>
-      </c>
-      <c r="O19" t="str">
+      <c r="N19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" s="2" t="str">
         <f>_xlfn.CONCAT("PFD-l", B19)</f>
         <v>PFD-l10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.76300000000000001</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>108</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>2175</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.155</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>10.397</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven1</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>5.91692E-3</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>3.9979300000000002E-2</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <v>2.4612800000000001E-2</v>
       </c>
-      <c r="N20" t="s">
-        <v>184</v>
-      </c>
-      <c r="O20" t="str">
+      <c r="N20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" s="2" t="str">
         <f t="shared" ref="O20:O26" si="3">_xlfn.CONCAT("PFD-l", B20)</f>
         <v>PFD-l20</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>40</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>1.5489999999999999</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>99</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>1990</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>0.33500000000000002</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>22.361999999999998</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>5.9085099999999996E-3</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>3.11863E-2</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>1.8998500000000001E-2</v>
       </c>
-      <c r="N21" t="s">
-        <v>185</v>
-      </c>
-      <c r="O21" t="str">
+      <c r="N21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l40</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>60</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>2.3730000000000002</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>104</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>2081</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>0.52</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>34.689</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>5.8910400000000002E-3</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>2.1347999999999999E-2</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>1.44181E-2</v>
       </c>
-      <c r="N22" t="s">
-        <v>186</v>
-      </c>
-      <c r="O22" t="str">
+      <c r="N22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l60</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>80</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>3.2210000000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>104</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>2082</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>55.570999999999998</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>5.8786899999999998E-3</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>1.6127699999999998E-2</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <v>1.2009499999999999E-2</v>
       </c>
-      <c r="N23" t="s">
-        <v>187</v>
-      </c>
-      <c r="O23" t="str">
+      <c r="N23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l80</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>100</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>4.1680000000000001</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>170</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>3404</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>1.014</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>67.614000000000004</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven2</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>5.8634999999999998E-3</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>1.2359500000000001E-2</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="2">
         <v>9.9270199999999999E-3</v>
       </c>
-      <c r="N24" t="s">
-        <v>188</v>
-      </c>
-      <c r="O24" t="str">
+      <c r="N24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>150</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>6.68</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>491</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>9823</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>2.218</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>147.905</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>5.8251500000000003E-3</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>7.8367300000000001E-3</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="2">
         <v>6.9815900000000002E-3</v>
       </c>
-      <c r="N25" t="s">
-        <v>189</v>
-      </c>
-      <c r="O25" t="str">
+      <c r="N25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l150</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>200</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>13.092000000000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>1174</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>23481</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>9.7330000000000005</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>648.88400000000001</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven3</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>4.6514099999999999E-3</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <v>6.2362600000000004E-3</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="2">
         <v>5.6285500000000004E-3</v>
       </c>
-      <c r="N26" t="s">
-        <v>190</v>
-      </c>
-      <c r="O26" t="str">
+      <c r="N26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l200</v>
       </c>
@@ -9872,7 +9848,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A2" sqref="A2:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9923,933 +9899,933 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>7.4089999999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>7.5149999999999997</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>501.06299999999999</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I26" si="0">MID(H2,FIND("raven",H2),FIND("/",H2,FIND("raven",H2))-FIND("raven",H2))</f>
         <v>raven11</v>
       </c>
-      <c r="K2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="K2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="2" t="str">
         <f t="shared" ref="L2:L9" si="1">_xlfn.CONCAT("NORM_SAMPLING-ss",B2)</f>
         <v>NORM_SAMPLING-ss10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>16.722999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>18.024000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>1201.625</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven12</v>
       </c>
-      <c r="K3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="K3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>29.779</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.44700000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>35.932000000000002</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>2395.5259999999998</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven13</v>
       </c>
-      <c r="K4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="K4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>100</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>55.052</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.45</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>70.971999999999994</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>4731.4939999999997</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven14</v>
       </c>
-      <c r="K5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="K5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>150</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>77.655000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.443</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>106.155</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>7077.0640000000003</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven14</v>
       </c>
-      <c r="K6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="K6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss150</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>200</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>180.37</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.46899999999999997</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>276.28500000000003</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>18419.045999999998</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven15</v>
       </c>
-      <c r="K7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L7" t="str">
+      <c r="K7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss200</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>400</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>180.37</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>275.86700000000002</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>18391.152999999998</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven16</v>
       </c>
-      <c r="K8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" t="str">
+      <c r="K8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>600</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>250.25800000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.46200000000000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>407.39</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>27159.359</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven16</v>
       </c>
-      <c r="K9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" t="str">
+      <c r="K9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>NORM_SAMPLING-ss600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>6.202</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.46300000000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>8.0389999999999997</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>535.94600000000003</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven11</v>
       </c>
-      <c r="K10" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" t="str">
+      <c r="K10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="2" t="str">
         <f t="shared" ref="L10:L18" si="2" xml:space="preserve"> _xlfn.CONCAT("NORM_SAMPLING_WR-ss",B10)</f>
         <v>NORM_SAMPLING_WR-ss10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>14.37</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.47499999999999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>18.454999999999998</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>1230.3689999999999</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven12</v>
       </c>
-      <c r="K11" t="s">
-        <v>175</v>
-      </c>
-      <c r="L11" t="str">
+      <c r="K11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>50</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>27.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.495</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>9</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>36.347999999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>2423.201</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven13</v>
       </c>
-      <c r="K12" t="s">
-        <v>176</v>
-      </c>
-      <c r="L12" t="str">
+      <c r="K12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>100</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>50.402000000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.53500000000000003</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>71.537000000000006</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>4769.1369999999997</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven14</v>
       </c>
-      <c r="K13" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" t="str">
+      <c r="K13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>150</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>70.406000000000006</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.56399999999999995</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>11</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>106.642</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>7109.5150000000003</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven14</v>
       </c>
-      <c r="K14" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" t="str">
+      <c r="K14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss150</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>200</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>89.263999999999996</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.626</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>142.23699999999999</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>9482.4689999999991</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven15</v>
       </c>
-      <c r="K15" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" t="str">
+      <c r="K15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss200</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>400</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>160.04499999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.78600000000000003</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>15</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>284.161</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>18944.12</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven15</v>
       </c>
-      <c r="K16" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" t="str">
+      <c r="K16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss400</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>600</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>220.602</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.96799999999999997</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>19</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>425.149</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>28343.288</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven16</v>
       </c>
-      <c r="K17" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" t="str">
+      <c r="K17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss600</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>700</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>250.613</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1.0409999999999999</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>20</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>495.28199999999998</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>33018.856</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven16</v>
       </c>
-      <c r="K18" t="s">
-        <v>182</v>
-      </c>
-      <c r="L18" t="str">
+      <c r="K18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NORM_SAMPLING_WR-ss700</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>3.738</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>26203</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>524072</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>143.46600000000001</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>9564.4570000000003</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven15</v>
       </c>
-      <c r="K19" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19" t="str">
+      <c r="K19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="2" t="str">
         <f t="shared" ref="L19:L26" si="3" xml:space="preserve"> _xlfn.CONCAT("PFD-l",B19)</f>
         <v>PFD-l10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>40</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>4.5010000000000003</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>25505</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>510103</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>68.742000000000004</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>4582.8050000000003</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven16</v>
       </c>
-      <c r="K20" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" t="str">
+      <c r="K20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>9.0030000000000001</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>25280</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>505616</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>34.073999999999998</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>2271.6379999999999</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven16</v>
       </c>
-      <c r="K21" t="s">
-        <v>184</v>
-      </c>
-      <c r="L21" t="str">
+      <c r="K21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>80</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>18.234999999999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>17377</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>347543</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>224.26599999999999</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>14951.072</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven14</v>
       </c>
-      <c r="K22" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" t="str">
+      <c r="K22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l80</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>60</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>22.812000000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>25742</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>514857</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>17.655000000000001</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>1177.0419999999999</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven15</v>
       </c>
-      <c r="K23" t="s">
-        <v>186</v>
-      </c>
-      <c r="L23" t="str">
+      <c r="K23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l60</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>100</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>38.072000000000003</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>12434</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>248687</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>303.43299999999999</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>20228.868999999999</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven13</v>
       </c>
-      <c r="K24" t="s">
-        <v>188</v>
-      </c>
-      <c r="L24" t="str">
+      <c r="K24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>150</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>57.375</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>12577</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>251555</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>637.35900000000004</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>42490.644</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven12</v>
       </c>
-      <c r="K25" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" t="str">
+      <c r="K25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l150</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>200</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>76.677999999999997</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>9853</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>197075</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>1.0369999999999999</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>69146.466</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>raven11</v>
       </c>
-      <c r="K26" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" t="str">
+      <c r="K26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="2" t="str">
         <f t="shared" si="3"/>
         <v>PFD-l200</v>
       </c>
@@ -10866,10 +10842,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2D48C8-D4CF-4839-A342-B80E3D988089}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10919,10 +10895,10 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10955,7 +10931,7 @@
         <v>raven8</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L2" t="str">
         <f>_xlfn.CONCAT("CMG-e", TEXT(B2, "0.000000"))</f>
@@ -10992,7 +10968,7 @@
         <v>raven1</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L7" si="1">_xlfn.CONCAT("CMG-e", TEXT(B3, "0.000000"))</f>
@@ -11029,7 +11005,7 @@
         <v>raven8</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
@@ -11066,7 +11042,7 @@
         <v>raven5</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
@@ -11103,7 +11079,7 @@
         <v>raven3</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
@@ -11140,7 +11116,7 @@
         <v>raven2</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
@@ -11177,7 +11153,7 @@
         <v>raven2</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L8" t="str">
         <f>_xlfn.CONCAT("PCM_HH-logU22-e", B8, "-d0.01-D2000")</f>
@@ -11214,7 +11190,7 @@
         <v>raven3</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" ref="L9:L12" si="2">_xlfn.CONCAT("PCM_HH-logU22-e", B9, "-d0.01-D2000")</f>
@@ -11251,7 +11227,7 @@
         <v>raven5</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="2"/>
@@ -11288,7 +11264,7 @@
         <v>raven8</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="2"/>
@@ -11325,7 +11301,7 @@
         <v>raven1</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="2"/>
@@ -11362,7 +11338,7 @@
         <v>raven1</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L13" t="str">
         <f>_xlfn.CONCAT("SAMPLING-ss",B13)</f>
@@ -11399,7 +11375,7 @@
         <v>raven2</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L18" si="3">_xlfn.CONCAT("SAMPLING-ss",B14)</f>
@@ -11436,7 +11412,7 @@
         <v>raven3</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="3"/>
@@ -11473,7 +11449,7 @@
         <v>raven8</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="3"/>
@@ -11510,7 +11486,7 @@
         <v>raven8</v>
       </c>
       <c r="K17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="3"/>
@@ -11547,11 +11523,16 @@
         <v>raven5</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="3"/>
         <v>SAMPLING-ss400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -11566,10 +11547,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3713A4F-2908-453B-8A5A-14CE11059B44}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11631,7 +11612,7 @@
       <c r="B2">
         <v>1E-3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>268.64800000000002</v>
       </c>
       <c r="D2">
@@ -11739,7 +11720,7 @@
       <c r="B5">
         <v>0.01</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>197.114</v>
       </c>
       <c r="D5">
@@ -11811,7 +11792,7 @@
       <c r="B7">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>844.73800000000006</v>
       </c>
       <c r="D7">
@@ -11847,7 +11828,7 @@
       <c r="B8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1875.605</v>
       </c>
       <c r="D8">
@@ -11919,7 +11900,7 @@
       <c r="B10">
         <v>1E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>260.13799999999998</v>
       </c>
       <c r="D10">
@@ -11955,7 +11936,7 @@
       <c r="B11">
         <v>50000</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>67.143000000000001</v>
       </c>
       <c r="D11">
@@ -11991,7 +11972,7 @@
       <c r="B12">
         <v>100000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>134.28200000000001</v>
       </c>
       <c r="D12">
@@ -12027,7 +12008,7 @@
       <c r="B13">
         <v>500000</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>671.39099999999996</v>
       </c>
       <c r="D13">
@@ -12063,7 +12044,7 @@
       <c r="B14">
         <v>1000000</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1281.7429999999999</v>
       </c>
       <c r="D14">
@@ -12099,7 +12080,7 @@
       <c r="B15">
         <v>2000000</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>2563.4810000000002</v>
       </c>
       <c r="D15">
@@ -12243,7 +12224,7 @@
       <c r="B19">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>2801.5720000000001</v>
       </c>
       <c r="D19">
@@ -12279,7 +12260,7 @@
       <c r="B20">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>4339.7460000000001</v>
       </c>
       <c r="D20">
@@ -12315,7 +12296,7 @@
       <c r="B21">
         <v>1E-4</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>6393.192</v>
       </c>
       <c r="D21">
@@ -12351,7 +12332,7 @@
       <c r="B22">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>9216.8510000000006</v>
       </c>
       <c r="D22">
@@ -12378,6 +12359,11 @@
       </c>
       <c r="L22">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
